--- a/Track.xlsx
+++ b/Track.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -162,6 +162,251 @@
   </si>
   <si>
     <t>Pluralsight -2 Video Lectures(ASP.NET &amp;&amp; ASP.NET MVC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+An array is given representing the colors of n jars, colors have values 0-99. 
+When two jars are mixed the resulting volume is same as volume of one jar. 
+Smoke is color1*color2… and resulting color is (color1+color2)% 100. 
+Keep on mixing colors such that you end up with just one jar with minimum smoke.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a set of intervals like 5-10, 15-20, 25-40, 30-45, 50-100. Find the ith smallest number in these intervals.
+Assume there are no duplicate numbers.
+e.g:  1st smallest number = 5
+   6th smallest number = 10
+   7th smallest number = 15 and so on. 
+I told him that we would first sort the interval on basis of starting numbers. Then merge overlapping intervals to get a set of non-overlapping intervals like 5-10, 15-20, 25-45, 50-100. Now we can find the ith smallest number after finding the appropriate interval.
+FOLLOW UP: He then modified this question to accomodate duplicate numbers also.
+Suppose we have intervals like 5-10, 8-12. 
+Then total numbers in these two intervals would be: {5,6,7,8,8,9,9,10,10,11,12} 
+  So, 1st smallest number: 5
+   4th smallest number: 8
+   5th smallest number: 8 (here is the 
+change since now we have duplicate elements also) and so on. </t>
+  </si>
+  <si>
+    <t>Given n, find the smallest number for which product of the digits is n, if no such number exists, print -1
+Note: Digits can only be split as single digits, i.e., 132 can’t considered as 1 * 32 or 13 * 2, it would only be 1 * 3 * 2
+Eg. Answer for 36 would be 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of characters, find the longest continuous non-repeating sequence of characters. Algo + Code
+Ex: aabcdefdghiajk – efdghiajk
+I have given a hash based solution, so he asked me to write a custom hashfunction and how to handle collisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a binary tree
+                               1
+                              /   \
+                             2     3
+                            /  \   /  \
+                           4     5    6
+                         /  \  /    \ /   \
+                        7    8      9   10 
+ Needed to connect the nodes vertically
+                                 1
+                                / | \
+                              2  |   3
+                            / | \ | /  | \
+                          4  |    5  |    6
+                         /  \  |  /   \ |  /   \
+                        7     8       9     10 
+Assume each tree node has an additional pointer 
+(struct node* vertical) 
+</t>
+  </si>
+  <si>
+    <t>There is a sentence that your friend knows, but while giving it to you, he lost all the spaces. 
+You have to dictionary with you. How would you reconstruct the original sentence using it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of numbers find the maximum count of duplets and triplets such that there sum is a multiple of three. Number that has appeared once can’t be included anywhere else.
+I solved this question using a property of modulus.</t>
+  </si>
+  <si>
+    <t>Given an array of integers (+ve and -ve), give a contiguous set of numbers that add to 1
+Eg. 4 3 5 -3 -1 2 -3 10 2
+Ans: 5 -3 -1 2 -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Find the next largest palindrome number of the given number. Algo + Code
+Ex: 120 -121, 123 – 131
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given stock price of Amazon for some consecutive days. Need to find the maximum span of each day’s stock price. Span is the amount of days before the given day where the stock price is less than that of given day
+E.g i/p = {2,4,6,9,5,1}
+      o/p= { -1,1,2,3,2,-1} </t>
+  </si>
+  <si>
+    <t>Given a grid with size m,n. Find the total number of distinct paths which starts from the start of the grip (top left corner say (0.0)) and reaches end of the grid (bottom right corner say (m-1,n-2)). On condition that you can only move in right direction i.e. positive x direction (+1, 0) or in up direction i.e. positive y direction (0, +1) from any given position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Output nearest number greater than given number such that output is palindrome
+ex: 121:131
+900:909
+99:101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Find distance between two given keys of a Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a string, find the largest repetitive sequence. Algo + Code
+Ex: abcdefbcd – bcd, banana – ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given a matrix of 1's and 0's . The property is that
+every row of matrix is sorted in descending order . Return row with maximum number of 0's
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Find your own method to balance an unbalanced binary tree.(you must not use existing methods like AVL, red black or b trees).
+Hint: There is no restriction on placing nodes. You can remove any node from any place and put it in any place.
+I devised an algorithm which will make use of two lists. One list contains nodes far away from the root and this is sorted in decreasing order of levels and left to right if nodes are in same level. Other list contains nodes which are not fully filled. This is sorted increasing order of levels and left to right if nodes are in same level .
+Remove the first node (listed in list1) and insert as a child of first node in list2.add this node also in list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Convert a Binary tree into another binary tree whose in-order traversal gives a sorted list
+This has to be done in-place
+Eg.
+        1
+    2       3
+ 4   5   6     7
+should be converted into
+        4
+    2       6
+ 1   3   5     7</t>
+  </si>
+  <si>
+    <t>Write a function to find the longest common prefix string amongst an array of strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Count the number of 2's in all number from 0 to n .</t>
+  </si>
+  <si>
+    <t>Convert sorted array to binary search tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+There is a file which contains N words. There may be M anagrams in that file, K words on each anagrams. K&gt;=1, M&gt;=1, N&gt;=1. You need to write an algorithm which will create one list for each anagram with k words and group all M lists with one data structure (This is the main area.we need to think a data structure which will minimize the space and time complexity of word Finding appropriate List and Inserting word).
+I could do the insertion in O(1) time by keeping track of tail pointer in each list. But finding the appropriate list needs o(n) in case of linked list, o(log(n)) in case of binary search tree. Using hash table, you can do this in o(1), but writing a hash function is difficult and inefficient in terms of time. Then I suggested Trie data structure.with this, we can reduce the time complexity well. But space complexity will be more. I told all the ideas to interviewer. They were much satisfied with this. And moved to next question(without writing code J)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In a Binary tree, every element must contain the sum of its sub-trees
+Follow up question: how would you solve this if you can ONLY increment the value of a node
+Eg. If a node’s value is 20 and its sub-tree sum is 10, the node’s value can’t be set to 10 because you can only increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Linkedin and find till 2nd level connections and path between 2 connection
+for ex: if A is friend of B which is friend of C
+print between A and C A-B-C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convert a linkedlist with positive and negative integers into a list with first all negative integers, then positive. order amongst negative and positive numbers to be maintained .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given flat files (for an entire year, 1 per day) of train schedules (arrival and departure times at a given station) find Min platforms required to accommodate the trains in that station.(algo only)</t>
+  </si>
+  <si>
+    <t>Print an organisational hierarchy.
+Naveen manages Satish
+Satish manages Anushree
+Satish manages Sandeep
+Gurinder manages Naveen
+Gurinder-&gt;Naveen
+Naveen-&gt;Satish
+Satish-&gt;Anushree,Sandeep
+Anushree-&gt;
+Sandeep-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an unsorted array, assign every element to its immediate larger number after the current number, assign to -1 if no such number exists
+Eg. 3 1 2 5 9 4 8 should be converted to
+5 2 5 9 -1 8 -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of 1s followed by 0s,find the number of 0s.
+     Eg : Input : 111100    Output =2
+          Input : 1         Output =0 
+I solved it by using Binary Search to find the first and last occurrence of 0 in the array and subtracting the results.</t>
+  </si>
+  <si>
+    <t>Given an array of size n, and an integer k. find minimum number in every subarray of size k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are n balls kept on a table and connected in random fashion but there is no cycle (no back edge). Write the code to select a ball such that after lifting the whole structure from that ball height will be minimum. (algo+code+ mathematical proof of correctness)</t>
+  </si>
+  <si>
+    <t>3. Given a dictionary of 50,000 words. Given a phrase without spaces, add spaces to make it a proper sentence.
+e.g:input:  thequickbrownfoxjumpoverlazydog
+ output: the quick brown fox jump over lazy dog
+ Worst case complexity of finding a word in HASHMAP given we have ‘B’ buckets and total of 50,000 words. ( Ans: O(50,000/B) )
+       2) Complexity of finding a word in TRIE. (Ans: O(Word Length) )
+       3) Advantages of TRIE over HASHMAP and some similar discussions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+linked list palindrome-alpha numeric characters-ignore case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given an array of integers , replace each element with the product of the remaining elements.
+  Eg : Input - 1 2 3 4     
+       Output : 24 12 8 6 
+First, i gave the obvious solution. I computed the product of the whole array and then divided it by each element to get the resultant array.
+But he asked me to do it without using the division operation. After some cross questioning I gave the following solution.
+Store the product of the left side elements for each integer in an array L[].
+For eg : Here , L[]= {1 , 1 , 2 , 6 }
+Do the same for the right side elements.
+Here R[] = { 24 , 12 , 4 , 1} 
+The multiply R[i] and L[i]  to get the resultant array.
+Complexity : O(n) </t>
+  </si>
+  <si>
+    <t>Implement lastindexofastring(String s1,String s2) . If s2 is present multiple times return the last index of s2 in s1 , else return -1.</t>
+  </si>
+  <si>
+    <t>Two strings s1 and s2 are given; find a minimal length substring in s1 which does not contain s2 as a substring. (Do include all edge cases)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of numbers find all such triplets that satisfy the given condition.
+Condition: a[i] &lt; a[j] &lt; a[k] where I &lt; j &lt; k.
+At first go I thought that it was a pretty easy question but slowly the mist started to clear and I realized how tough it was.
+ The interviewer wanted me to solve it in linear time i.e. O(N)</t>
+  </si>
+  <si>
+    <t>Given an array, output an array where every index conains nearest greatest element to that element on right side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Given an array of positive and negative numbers, find the pair of elements whose sum is closest to 0.
+     Eg : Input :  3 5 -9 -4 17 11       
+          Output  3 , -4  
+The brute force solution would be O(n^2) by comparing each pair of elements.As expected, he asked me to optimize my solution.
+So I sorted the array using merge sort. (I know its not in-place but it did not strike me at the time)
+Then used two indexes at the beginning and end of the the array and incremented/decremented the indexes as needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a string find the repeated characters and print them in lexicographical order. e.g i/p string- “ABCCAD” o/p-”AC”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given a tree with edge weights, find any path in the tree with maximum sum of edges.</t>
   </si>
 </sst>
 </file>
@@ -263,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -279,6 +524,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +833,8 @@
   <dimension ref="A1:AU19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,11 +991,143 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="240" x14ac:dyDescent="0.25">
+      <c r="I5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="315" x14ac:dyDescent="0.25">
+      <c r="I6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="360" x14ac:dyDescent="0.25">
+      <c r="I8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="225" x14ac:dyDescent="0.25">
+      <c r="I9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1980" windowWidth="20730" windowHeight="8175"/>
+    <workbookView xWindow="240" yWindow="2160" windowWidth="20730" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +447,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -508,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -527,6 +533,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +848,8 @@
   <dimension ref="A1:AU19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +1002,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -997,21 +1012,21 @@
       <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="10" t="s">
+    <row r="3" spans="1:47" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -1020,12 +1035,12 @@
       <c r="L3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="10" t="s">
+    <row r="4" spans="1:47" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -1048,7 +1063,7 @@
       <c r="J5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -1062,30 +1077,30 @@
       <c r="I6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="10" t="s">
+    <row r="7" spans="1:47" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="10" t="s">
@@ -1093,16 +1108,16 @@
       </c>
     </row>
     <row r="8" spans="1:47" ht="360" x14ac:dyDescent="0.25">
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="10" t="s">
@@ -1113,13 +1128,13 @@
       <c r="I9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="10" t="s">

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2160" windowWidth="20730" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="2220" windowWidth="20730" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -407,6 +407,48 @@
   </si>
   <si>
     <t xml:space="preserve"> Given a tree with edge weights, find any path in the tree with maximum sum of edges.</t>
+  </si>
+  <si>
+    <t>BstOrNot</t>
+  </si>
+  <si>
+    <t>Given a matrix with 1s and 0s, 
+u have to construct a matrix such that a[i][j]=1, 
+if only every element in ith row and jth column is 1, otherwise 0. 
+You have to use constant space and O(mn) time complexity.</t>
+  </si>
+  <si>
+    <t>Find the sum of elements in after nth iteration for below operation on array. original array 4 6 8 3 6 sum = 27 iteration1 -2 -2 5 -3 sum = -2 (a1= a2-a1) iteration2: 0 -7 8 sum= 1 iteration3: 7 -15 sum =-8</t>
+  </si>
+  <si>
+    <t>Given a binary tree, replace each node value by sum of its children value.</t>
+  </si>
+  <si>
+    <t>You are given array of numbers which increasing first then decreasing. Find the greates number. eg: 1 2 3 4 5 4 3 answer: 5 Solution : Time Complexity O(logn) Space Complexity O(1)</t>
+  </si>
+  <si>
+    <t>Inorder Succesor With Root</t>
+  </si>
+  <si>
+    <t>Inorder succesor without root</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree, check if every node is sum of all of its children.</t>
+  </si>
+  <si>
+    <t>Mirror Tree</t>
+  </si>
+  <si>
+    <t>First non-repeating character in string</t>
+  </si>
+  <si>
+    <t>Heap sort</t>
+  </si>
+  <si>
+    <t>Two string S1 and S2 are given, check whether S1 is a shifted version of S2 Eg abcd-s1 dabc cdab ...both the strings are shifted version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Implement a stack using 2 queues. Now optimize the implementation. " </t>
   </si>
 </sst>
 </file>
@@ -514,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -542,6 +584,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,15 +895,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="19" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="17" width="50.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="50.7109375" style="1" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -911,7 +961,7 @@
       <c r="Q1" s="9">
         <v>41801</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="15">
         <v>41802</v>
       </c>
       <c r="S1" s="9">
@@ -1144,6 +1194,51 @@
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" ht="300" x14ac:dyDescent="0.25">
+      <c r="Q13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="165" x14ac:dyDescent="0.25">
+      <c r="Q14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="R15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -556,14 +556,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,6 +587,12 @@
     </xf>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,366 +898,652 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="17" width="50.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="50.7109375" style="14" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" style="11" customWidth="1"/>
     <col min="19" max="19" width="50.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1"/>
+    <col min="22" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="6">
         <v>41786</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>41787</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>41788</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>41789</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>41790</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>41791</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="6">
         <v>41792</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="6">
         <v>41793</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="6">
         <v>41794</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="6">
         <v>41795</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="6">
         <v>41796</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="6">
         <v>41797</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="6">
         <v>41798</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="6">
         <v>41799</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="6">
         <v>41800</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="6">
         <v>41801</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="12">
         <v>41802</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="6">
         <v>41803</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="6">
         <v>41804</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="6">
         <v>41805</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="6">
         <v>41806</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="6">
         <v>41807</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="6">
         <v>41808</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="6">
         <v>41809</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="6">
         <v>41810</v>
       </c>
-      <c r="AA1" s="9">
+      <c r="AA1" s="6">
         <v>41811</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="6">
         <v>41812</v>
       </c>
-      <c r="AC1" s="9">
+      <c r="AC1" s="6">
         <v>41813</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="6">
         <v>41814</v>
       </c>
-      <c r="AE1" s="9">
+      <c r="AE1" s="6">
         <v>41815</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="6">
         <v>41816</v>
       </c>
-      <c r="AG1" s="9">
+      <c r="AG1" s="6">
         <v>41817</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AH1" s="6">
         <v>41818</v>
       </c>
-      <c r="AI1" s="9">
+      <c r="AI1" s="6">
         <v>41819</v>
       </c>
-      <c r="AJ1" s="9">
+      <c r="AJ1" s="6">
         <v>41820</v>
       </c>
-      <c r="AK1" s="9">
+      <c r="AK1" s="6">
         <v>41821</v>
       </c>
-      <c r="AL1" s="9">
+      <c r="AL1" s="6">
         <v>41822</v>
       </c>
-      <c r="AM1" s="9">
+      <c r="AM1" s="6">
         <v>41823</v>
       </c>
-      <c r="AN1" s="9">
+      <c r="AN1" s="6">
         <v>41824</v>
       </c>
-      <c r="AO1" s="9">
+      <c r="AO1" s="6">
         <v>41825</v>
       </c>
-      <c r="AP1" s="9">
+      <c r="AP1" s="6">
         <v>41826</v>
       </c>
-      <c r="AQ1" s="9">
+      <c r="AQ1" s="6">
         <v>41827</v>
       </c>
-      <c r="AR1" s="9">
+      <c r="AR1" s="6">
         <v>41828</v>
       </c>
-      <c r="AS1" s="9">
+      <c r="AS1" s="6">
         <v>41829</v>
       </c>
-      <c r="AT1" s="9">
+      <c r="AT1" s="6">
         <v>41830</v>
       </c>
-      <c r="AU1" s="9">
+      <c r="AU1" s="6">
         <v>41831</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="11" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="11" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" ht="240" x14ac:dyDescent="0.25">
-      <c r="I5" s="10" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="315" x14ac:dyDescent="0.25">
-      <c r="I6" s="10" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="12" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" ht="360" x14ac:dyDescent="0.25">
-      <c r="I8" s="11" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" ht="225" x14ac:dyDescent="0.25">
-      <c r="I9" s="10" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" ht="300" x14ac:dyDescent="0.25">
-      <c r="Q13" s="10" t="s">
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="165" x14ac:dyDescent="0.25">
-      <c r="Q14" s="14" t="s">
+    <row r="14" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="R15" s="10" t="s">
+    <row r="15" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="16" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1290,7 +1579,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1301,18 +1590,18 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>41849</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -1323,7 +1612,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -1334,7 +1623,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1345,7 +1634,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -1353,7 +1642,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1364,12 +1653,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -1380,17 +1669,17 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -1401,12 +1690,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -899,10 +899,10 @@
   <dimension ref="A1:AU19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R12" s="11"/>

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -593,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,7 +905,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,10 +1390,10 @@
       <c r="Q13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="8" t="s">
         <v>85</v>
       </c>
       <c r="T13" s="7" t="s">

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2220" windowWidth="20730" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="2280" windowWidth="20730" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t xml:space="preserve">" Implement a stack using 2 queues. Now optimize the implementation. " </t>
+  </si>
+  <si>
+    <t>Calculate the angle between hour hand and minute hand</t>
+  </si>
+  <si>
+    <t>Chapter-28,29,30</t>
+  </si>
+  <si>
+    <t>Is it possible to call constructor and destructor explicitly?</t>
   </si>
 </sst>
 </file>
@@ -902,10 +911,10 @@
   <dimension ref="A1:AU19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1104,9 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
+      <c r="AM2" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -1125,6 +1137,9 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
+      <c r="AL3" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -1155,6 +1170,9 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
+      <c r="AL4" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2280" windowWidth="20730" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="2340" windowWidth="20730" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>Is it possible to call constructor and destructor explicitly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 represent A, 2 rep B etc and 26 rep Z. Given a number, find number of possible decoding for this number. No need to consider number starts with zero. Eg: input – 1234, output – 3(ABCD, AWD, LCD)</t>
+  </si>
+  <si>
+    <t>How to design LRU cache(looking for the DS’s used and their interaction)</t>
+  </si>
+  <si>
+    <t>Array-HR</t>
   </si>
 </sst>
 </file>
@@ -911,10 +920,10 @@
   <dimension ref="A1:AU19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
+      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,6 +935,8 @@
     <col min="20" max="20" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.42578125" customWidth="1"/>
     <col min="22" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.5703125" customWidth="1"/>
+    <col min="40" max="40" width="38.42578125" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,7 +1083,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1106,6 +1117,9 @@
       <c r="S2" s="11"/>
       <c r="AM2" s="8" t="s">
         <v>90</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,6 +1154,9 @@
       <c r="AL3" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="AN3" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -1172,6 +1189,9 @@
       <c r="S4" s="11"/>
       <c r="AL4" s="8" t="s">
         <v>92</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -467,6 +467,36 @@
   </si>
   <si>
     <t>Array-HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User statistics are logged in the following format –
+    user_id|page|time at which page was accessed
+   We need to identify most followed 3 page sequence by users.
+   Example:
+      Input: U1|Page1|05/08/2014 10:00
+               U1|Page2|05/08/2014 10:01
+               U1|Page3|05/08/2014 10:02
+               U1|Page4|05/08/2014 10:03
+               U2|Page2|05/08/2014 10:02
+               U2|Page3|05/08/2014 10:04
+               U2|Page4|05/08/2014 10:05
+               U3|Page3|05/08/2014 10:04
+               U3|Page4|05/08/2014 10:05
+               U3|Page5|05/08/2014 10:06
+      Output: Most followed 3 page sequence for the input is 
+              Page2 -&gt; Page3 -&gt; Page4. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A linked list consists of two pointers: a next pointer and a child pointer. We have to make the linked list linear i.e. making all the child pointers NULL.
+eg:  1-&gt;2-&gt;3-&gt;4
+     |     |
+     5-&gt;6  8
+     |
+     7
+answer would be:
+     1-&gt;2-&gt;3-&gt;4-&gt;5-&gt;6-&gt;8-&gt;7. 
+</t>
   </si>
 </sst>
 </file>
@@ -917,13 +947,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AU19"/>
+  <dimension ref="A1:CF19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
+      <selection pane="bottomRight" activeCell="BW4" sqref="BW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +967,12 @@
     <col min="22" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="38.5703125" customWidth="1"/>
     <col min="40" max="40" width="38.42578125" customWidth="1"/>
+    <col min="74" max="74" width="72.5703125" customWidth="1"/>
+    <col min="77" max="84" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1114,119 @@
       <c r="AU1" s="6">
         <v>41831</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV1" s="6">
+        <v>41832</v>
+      </c>
+      <c r="AW1" s="6">
+        <v>41833</v>
+      </c>
+      <c r="AX1" s="6">
+        <v>41834</v>
+      </c>
+      <c r="AY1" s="6">
+        <v>41835</v>
+      </c>
+      <c r="AZ1" s="6">
+        <v>41836</v>
+      </c>
+      <c r="BA1" s="6">
+        <v>41837</v>
+      </c>
+      <c r="BB1" s="6">
+        <v>41838</v>
+      </c>
+      <c r="BC1" s="6">
+        <v>41839</v>
+      </c>
+      <c r="BD1" s="6">
+        <v>41840</v>
+      </c>
+      <c r="BE1" s="6">
+        <v>41841</v>
+      </c>
+      <c r="BF1" s="6">
+        <v>41842</v>
+      </c>
+      <c r="BG1" s="6">
+        <v>41843</v>
+      </c>
+      <c r="BH1" s="6">
+        <v>41844</v>
+      </c>
+      <c r="BI1" s="6">
+        <v>41845</v>
+      </c>
+      <c r="BJ1" s="6">
+        <v>41846</v>
+      </c>
+      <c r="BK1" s="6">
+        <v>41847</v>
+      </c>
+      <c r="BL1" s="6">
+        <v>41848</v>
+      </c>
+      <c r="BM1" s="6">
+        <v>41849</v>
+      </c>
+      <c r="BN1" s="6">
+        <v>41850</v>
+      </c>
+      <c r="BO1" s="6">
+        <v>41851</v>
+      </c>
+      <c r="BP1" s="6">
+        <v>41852</v>
+      </c>
+      <c r="BQ1" s="6">
+        <v>41853</v>
+      </c>
+      <c r="BR1" s="6">
+        <v>41854</v>
+      </c>
+      <c r="BS1" s="6">
+        <v>41855</v>
+      </c>
+      <c r="BT1" s="6">
+        <v>41856</v>
+      </c>
+      <c r="BU1" s="6">
+        <v>41857</v>
+      </c>
+      <c r="BV1" s="6">
+        <v>41858</v>
+      </c>
+      <c r="BW1" s="6">
+        <v>41859</v>
+      </c>
+      <c r="BX1" s="6">
+        <v>41860</v>
+      </c>
+      <c r="BY1" s="6">
+        <v>41861</v>
+      </c>
+      <c r="BZ1" s="6">
+        <v>41862</v>
+      </c>
+      <c r="CA1" s="6">
+        <v>41863</v>
+      </c>
+      <c r="CB1" s="6">
+        <v>41864</v>
+      </c>
+      <c r="CC1" s="6">
+        <v>41865</v>
+      </c>
+      <c r="CD1" s="6">
+        <v>41866</v>
+      </c>
+      <c r="CE1" s="6">
+        <v>41867</v>
+      </c>
+      <c r="CF1" s="6">
+        <v>41868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1121,8 +1264,11 @@
       <c r="AN2" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BV2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1157,8 +1303,11 @@
       <c r="AN3" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BV3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1194,7 +1343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1224,7 +1373,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1254,7 +1403,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1284,7 +1433,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1314,7 +1463,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1344,7 +1493,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1364,7 +1513,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1384,7 +1533,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1558,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1441,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1473,7 +1622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1497,7 +1646,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:47" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -497,6 +497,17 @@
 answer would be:
      1-&gt;2-&gt;3-&gt;4-&gt;5-&gt;6-&gt;8-&gt;7. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a linked list which contains series of numbers seperated by “0?. Add them and store in the linked list in-place.
+for eg : i/p linked list is 1-&gt;2-&gt;3-&gt;0-&gt;5-&gt;4-&gt;0-&gt;3-&gt;2-&gt;0
+o/p Linked list is 6-&gt;9-&gt;5 </t>
+  </si>
+  <si>
+    <t>LCA-Anna code</t>
+  </si>
+  <si>
+    <t>Snake and Ladder-Think Logic</t>
   </si>
 </sst>
 </file>
@@ -947,13 +958,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CF19"/>
+  <dimension ref="A1:DG19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BW4" sqref="BW4"/>
+      <selection pane="bottomRight" activeCell="CV5" sqref="CV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,10 +980,11 @@
     <col min="40" max="40" width="38.42578125" customWidth="1"/>
     <col min="74" max="74" width="72.5703125" customWidth="1"/>
     <col min="77" max="84" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="73.140625" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1237,89 @@
       <c r="CF1" s="6">
         <v>41868</v>
       </c>
-    </row>
-    <row r="2" spans="1:84" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG1" s="6">
+        <v>41869</v>
+      </c>
+      <c r="CH1" s="6">
+        <v>41870</v>
+      </c>
+      <c r="CI1" s="6">
+        <v>41871</v>
+      </c>
+      <c r="CJ1" s="6">
+        <v>41872</v>
+      </c>
+      <c r="CK1" s="6">
+        <v>41873</v>
+      </c>
+      <c r="CL1" s="6">
+        <v>41874</v>
+      </c>
+      <c r="CM1" s="6">
+        <v>41875</v>
+      </c>
+      <c r="CN1" s="6">
+        <v>41876</v>
+      </c>
+      <c r="CO1" s="6">
+        <v>41877</v>
+      </c>
+      <c r="CP1" s="6">
+        <v>41878</v>
+      </c>
+      <c r="CQ1" s="6">
+        <v>41879</v>
+      </c>
+      <c r="CR1" s="6">
+        <v>41880</v>
+      </c>
+      <c r="CS1" s="6">
+        <v>41881</v>
+      </c>
+      <c r="CT1" s="6">
+        <v>41882</v>
+      </c>
+      <c r="CU1" s="6">
+        <v>41883</v>
+      </c>
+      <c r="CV1" s="6">
+        <v>41884</v>
+      </c>
+      <c r="CW1" s="6">
+        <v>41885</v>
+      </c>
+      <c r="CX1" s="6">
+        <v>41886</v>
+      </c>
+      <c r="CY1" s="6">
+        <v>41887</v>
+      </c>
+      <c r="CZ1" s="6">
+        <v>41888</v>
+      </c>
+      <c r="DA1" s="6">
+        <v>41889</v>
+      </c>
+      <c r="DB1" s="6">
+        <v>41890</v>
+      </c>
+      <c r="DC1" s="6">
+        <v>41891</v>
+      </c>
+      <c r="DD1" s="6">
+        <v>41892</v>
+      </c>
+      <c r="DE1" s="6">
+        <v>41893</v>
+      </c>
+      <c r="DF1" s="6">
+        <v>41894</v>
+      </c>
+      <c r="DG1" s="6">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:111" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1360,11 @@
       <c r="BV2" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CV2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1306,8 +1402,11 @@
       <c r="BV3" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CV3" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1342,8 +1441,11 @@
       <c r="AN4" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CV4" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1373,7 +1475,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1403,7 +1505,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1433,7 +1535,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1463,7 +1565,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1493,7 +1595,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1513,7 +1615,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1533,7 +1635,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1660,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1590,7 +1692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1622,7 +1724,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1646,7 +1748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:84" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -509,12 +509,21 @@
   <si>
     <t>Snake and Ladder-Think Logic</t>
   </si>
+  <si>
+    <t>http://www.spoj.com/problems/TEST/</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/problems/ADDREV/</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-quickest-way-up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +560,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,10 +637,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -656,8 +682,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -961,10 +994,10 @@
   <dimension ref="A1:DG19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CQ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CV5" sqref="CV5"/>
+      <selection pane="bottomRight" activeCell="CW12" sqref="CW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,6 +1692,9 @@
       </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
+      <c r="CV12" s="16" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
@@ -1691,6 +1727,9 @@
       <c r="U13" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="CV13" s="16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
@@ -1722,6 +1761,9 @@
       </c>
       <c r="U14" s="7" t="s">
         <v>83</v>
+      </c>
+      <c r="CV14" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,8 +1880,13 @@
       <c r="S19" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="CV12" r:id="rId1"/>
+    <hyperlink ref="CV13" r:id="rId2"/>
+    <hyperlink ref="CV14" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/the-quickest-way-up</t>
+  </si>
+  <si>
+    <t>1) Reversing Stack without any Additional Data Structures(Click here to go to Source)</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -686,6 +689,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:DG19"/>
+  <dimension ref="A1:EP19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CQ8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DV5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CW12" sqref="CW12"/>
+      <selection pane="bottomRight" activeCell="EE13" sqref="EE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,10 +1020,13 @@
     <col min="74" max="74" width="72.5703125" customWidth="1"/>
     <col min="77" max="84" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="73.140625" customWidth="1"/>
+    <col min="108" max="128" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="146" width="10" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1360,113 @@
       <c r="DG1" s="6">
         <v>41895</v>
       </c>
-    </row>
-    <row r="2" spans="1:111" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DH1" s="6">
+        <v>41896</v>
+      </c>
+      <c r="DI1" s="6">
+        <v>41897</v>
+      </c>
+      <c r="DJ1" s="6">
+        <v>41898</v>
+      </c>
+      <c r="DK1" s="6">
+        <v>41899</v>
+      </c>
+      <c r="DL1" s="6">
+        <v>41900</v>
+      </c>
+      <c r="DM1" s="6">
+        <v>41901</v>
+      </c>
+      <c r="DN1" s="6">
+        <v>41902</v>
+      </c>
+      <c r="DO1" s="6">
+        <v>41903</v>
+      </c>
+      <c r="DP1" s="6">
+        <v>41904</v>
+      </c>
+      <c r="DQ1" s="6">
+        <v>41905</v>
+      </c>
+      <c r="DR1" s="6">
+        <v>41906</v>
+      </c>
+      <c r="DS1" s="6">
+        <v>41907</v>
+      </c>
+      <c r="DT1" s="6">
+        <v>41908</v>
+      </c>
+      <c r="DU1" s="6">
+        <v>41909</v>
+      </c>
+      <c r="DV1" s="6">
+        <v>41910</v>
+      </c>
+      <c r="DW1" s="6">
+        <v>41911</v>
+      </c>
+      <c r="DX1" s="6">
+        <v>41912</v>
+      </c>
+      <c r="DY1" s="6">
+        <v>41913</v>
+      </c>
+      <c r="DZ1" s="6">
+        <v>41914</v>
+      </c>
+      <c r="EA1" s="6">
+        <v>41915</v>
+      </c>
+      <c r="EB1" s="6">
+        <v>41916</v>
+      </c>
+      <c r="EC1" s="6">
+        <v>41917</v>
+      </c>
+      <c r="ED1" s="6">
+        <v>41918</v>
+      </c>
+      <c r="EE1" s="6">
+        <v>41919</v>
+      </c>
+      <c r="EF1" s="6">
+        <v>41920</v>
+      </c>
+      <c r="EG1" s="6">
+        <v>41921</v>
+      </c>
+      <c r="EH1" s="6">
+        <v>41922</v>
+      </c>
+      <c r="EI1" s="6">
+        <v>41923</v>
+      </c>
+      <c r="EJ1" s="6">
+        <v>41924</v>
+      </c>
+      <c r="EK1" s="6">
+        <v>41925</v>
+      </c>
+      <c r="EL1" s="6">
+        <v>41926</v>
+      </c>
+      <c r="EM1" s="6">
+        <v>41927</v>
+      </c>
+      <c r="EN1" s="6">
+        <v>41928</v>
+      </c>
+      <c r="EO1" s="6">
+        <v>41929</v>
+      </c>
+      <c r="EP1" s="6">
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:146" s="7" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1511,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1439,7 +1553,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1478,7 +1592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1508,7 +1622,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1538,7 +1652,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1568,7 +1682,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1598,7 +1712,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1628,7 +1742,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1648,7 +1762,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1668,7 +1782,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -1695,8 +1809,11 @@
       <c r="CV12" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EE12" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1731,7 +1848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1766,7 +1883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1790,7 +1907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:111" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1884,9 +2001,10 @@
     <hyperlink ref="CV12" r:id="rId1"/>
     <hyperlink ref="CV13" r:id="rId2"/>
     <hyperlink ref="CV14" r:id="rId3"/>
+    <hyperlink ref="EE12" r:id="rId4" display="1) Reversing Stack without any Additional Data Structures(Click to go to Source)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Track.xlsx
+++ b/Track.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>1) Reversing Stack without any Additional Data Structures(Click here to go to Source)</t>
+  </si>
+  <si>
+    <t>LevelOrderTraversalWithQueue(Click Here to go to Source)</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -694,6 +697,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1022,6 +1026,7 @@
     <col min="100" max="100" width="73.140625" customWidth="1"/>
     <col min="108" max="128" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="138" max="146" width="10" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1812,6 +1817,9 @@
       <c r="EE12" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="EF12" s="19" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:146" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
@@ -2002,9 +2010,10 @@
     <hyperlink ref="CV13" r:id="rId2"/>
     <hyperlink ref="CV14" r:id="rId3"/>
     <hyperlink ref="EE12" r:id="rId4" display="1) Reversing Stack without any Additional Data Structures(Click to go to Source)"/>
+    <hyperlink ref="EF12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
